--- a/문서/자유수강권자 수강료 및 재료비 합계(4월).xlsx
+++ b/문서/자유수강권자 수강료 및 재료비 합계(4월).xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20415" windowHeight="14085"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20415" windowHeight="14085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4월" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="4월 (5월 추가자 제외)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="75">
   <si>
     <t>강지석</t>
   </si>
@@ -612,6 +613,1546 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G66"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G57" activeCellId="5" sqref="G2:G15 G19:G21 G43 G54 G59 G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2">
+        <v>64370</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2">
+        <v>92190</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2">
+        <v>73660</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2">
+        <v>68100</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2">
+        <v>47200</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2">
+        <v>84870</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>41580</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15240</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2">
+        <v>75170</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2">
+        <v>65560</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>29100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2">
+        <v>17010</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2">
+        <v>31960</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2">
+        <v>88920</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>72030</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>72030</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>63060</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="2">
+        <v>35290</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2">
+        <v>39060</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2">
+        <v>32410</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>73660</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>62660</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>56460</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>46240</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>95660</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>56460</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>151490</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>85860</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>35060</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2">
+        <v>30090</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2">
+        <v>101510</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2">
+        <v>22060</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>85040</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2">
+        <v>23600</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2">
+        <v>23600</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2">
+        <v>56460</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43280</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>89380</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="2">
+        <v>30360</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2">
+        <v>54020</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="2">
+        <v>82190</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="2">
+        <v>17910</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="2">
+        <v>30240</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2">
+        <v>41510</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2">
+        <v>67330</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2">
+        <v>61030</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="2">
+        <v>19940</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43120</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="2">
+        <v>15240</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="2">
+        <v>36830</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="2">
+        <v>56610</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="2">
+        <v>32410</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="2">
+        <v>29100</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="2">
+        <v>30240</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="2">
+        <v>51900</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="2">
+        <v>36410</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B58" s="1">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="2">
+        <v>43120</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>25</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="2">
+        <v>17910</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2">
+        <v>15240</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2">
+        <v>15240</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="2">
+        <v>32410</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="2">
+        <v>53820</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="2">
+        <v>39060</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45150</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="2">
+        <v>23600</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -651,7 +2192,7 @@
         <v>2016</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -660,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>64370</v>
+        <v>72030</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -674,22 +2215,22 @@
         <v>2016</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>92190</v>
+        <v>72030</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -697,22 +2238,22 @@
         <v>2016</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>73660</v>
+        <v>63060</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -720,22 +2261,22 @@
         <v>2016</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>68100</v>
+        <v>73660</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -743,22 +2284,22 @@
         <v>2016</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>47200</v>
+        <v>62660</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -766,22 +2307,22 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>84870</v>
+        <v>56460</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -789,22 +2330,22 @@
         <v>2016</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>41580</v>
+        <v>46240</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -812,22 +2353,22 @@
         <v>2016</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>15240</v>
+        <v>95660</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -835,22 +2376,22 @@
         <v>2016</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
-        <v>75170</v>
+        <v>56460</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -858,22 +2399,22 @@
         <v>2016</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>65560</v>
+        <v>151490</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -881,22 +2422,22 @@
         <v>2016</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>29100</v>
+        <v>85860</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -904,22 +2445,22 @@
         <v>2016</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>17010</v>
+        <v>35060</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -927,22 +2468,22 @@
         <v>2016</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>31960</v>
+        <v>30090</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -950,22 +2491,22 @@
         <v>2016</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2">
-        <v>88920</v>
+        <v>101510</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -973,7 +2514,7 @@
         <v>2016</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -982,13 +2523,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>72030</v>
+        <v>22060</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -996,22 +2537,22 @@
         <v>2016</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>72030</v>
+        <v>85040</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1019,19 +2560,19 @@
         <v>2016</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2">
-        <v>63060</v>
+        <v>23600</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>52</v>
@@ -1042,22 +2583,22 @@
         <v>2016</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>35290</v>
+        <v>23600</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1065,22 +2606,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>39060</v>
+        <v>56460</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1088,22 +2629,22 @@
         <v>2016</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2">
-        <v>32410</v>
+        <v>43280</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1111,19 +2652,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
-        <v>73660</v>
+        <v>89380</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>52</v>
@@ -1134,19 +2675,19 @@
         <v>2016</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2">
-        <v>62660</v>
+        <v>30360</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>52</v>
@@ -1157,19 +2698,19 @@
         <v>2016</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2">
-        <v>56460</v>
+        <v>54020</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>52</v>
@@ -1180,19 +2721,19 @@
         <v>2016</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2">
-        <v>46240</v>
+        <v>82190</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>52</v>
@@ -1203,19 +2744,19 @@
         <v>2016</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2">
-        <v>95660</v>
+        <v>30240</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>52</v>
@@ -1226,19 +2767,19 @@
         <v>2016</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2">
-        <v>56460</v>
+        <v>41510</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>52</v>
@@ -1249,19 +2790,19 @@
         <v>2016</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2">
-        <v>151490</v>
+        <v>67330</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>52</v>
@@ -1272,22 +2813,22 @@
         <v>2016</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2">
-        <v>85860</v>
+        <v>61030</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1295,19 +2836,19 @@
         <v>2016</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2">
-        <v>35060</v>
+        <v>19940</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>52</v>
@@ -1318,19 +2859,19 @@
         <v>2016</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2">
-        <v>30090</v>
+        <v>43120</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>52</v>
@@ -1341,19 +2882,19 @@
         <v>2016</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2">
-        <v>101510</v>
+        <v>15240</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>52</v>
@@ -1364,19 +2905,19 @@
         <v>2016</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2">
-        <v>22060</v>
+        <v>36830</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>52</v>
@@ -1387,19 +2928,19 @@
         <v>2016</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2">
-        <v>85040</v>
+        <v>56610</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>52</v>
@@ -1410,22 +2951,22 @@
         <v>2016</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2">
-        <v>23600</v>
+        <v>32410</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1433,19 +2974,19 @@
         <v>2016</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2">
-        <v>23600</v>
+        <v>30240</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>52</v>
@@ -1456,19 +2997,19 @@
         <v>2016</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2">
-        <v>56460</v>
+        <v>51900</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>52</v>
@@ -1479,19 +3020,19 @@
         <v>2016</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2">
-        <v>43280</v>
+        <v>43120</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>52</v>
@@ -1502,19 +3043,19 @@
         <v>2016</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2">
-        <v>89380</v>
+        <v>15240</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>52</v>
@@ -1525,19 +3066,19 @@
         <v>2016</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2">
-        <v>30360</v>
+        <v>15240</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>52</v>
@@ -1548,19 +3089,19 @@
         <v>2016</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2">
-        <v>54020</v>
+        <v>32410</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>52</v>
@@ -1571,19 +3112,19 @@
         <v>2016</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2">
-        <v>82190</v>
+        <v>53820</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>52</v>
@@ -1594,22 +3135,22 @@
         <v>2016</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2">
-        <v>17910</v>
+        <v>39060</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1617,19 +3158,19 @@
         <v>2016</v>
       </c>
       <c r="B44" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2">
-        <v>30240</v>
+        <v>45150</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>52</v>
@@ -1640,504 +3181,21 @@
         <v>2016</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2">
-        <v>41510</v>
+        <v>23600</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>11</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="2">
-        <v>67330</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="2">
-        <v>61030</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="2">
-        <v>19940</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>24</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="2">
-        <v>43120</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B50" s="1">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="2">
-        <v>15240</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B51" s="1">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>24</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="2">
-        <v>36830</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B52" s="1">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="2">
-        <v>56610</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B53" s="1">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="2">
-        <v>32410</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1">
-        <v>7</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="2">
-        <v>29100</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B55" s="1">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="2">
-        <v>30240</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B56" s="1">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="2">
-        <v>51900</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
-        <v>6</v>
-      </c>
-      <c r="D57" s="1">
-        <v>16</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="2">
-        <v>36410</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B58" s="1">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="2">
-        <v>43120</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B59" s="1">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>25</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="2">
-        <v>17910</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B60" s="1">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1">
-        <v>12</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="2">
-        <v>15240</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B61" s="1">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1">
-        <v>4</v>
-      </c>
-      <c r="D61" s="1">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="2">
-        <v>15240</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B62" s="1">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1">
-        <v>12</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="2">
-        <v>32410</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B63" s="1">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1">
-        <v>15</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="2">
-        <v>53820</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B64" s="1">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="2">
-        <v>39060</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B65" s="1">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1">
-        <v>12</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="2">
-        <v>45150</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B66" s="1">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>23</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="2">
-        <v>23600</v>
-      </c>
-      <c r="G66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2148,7 +3206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
